--- a/app/routers/smeta/base.xlsx
+++ b/app/routers/smeta/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
